--- a/data/pca/factorExposure/factorExposure_2016-10-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01554046740364246</v>
+        <v>0.01121024762485444</v>
       </c>
       <c r="C2">
-        <v>0.04915584207818206</v>
+        <v>0.04187561611286007</v>
       </c>
       <c r="D2">
-        <v>-0.02400846037681723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0634623622342084</v>
+      </c>
+      <c r="E2">
+        <v>0.04961041310788883</v>
+      </c>
+      <c r="F2">
+        <v>-0.08699039423965967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05473048498228954</v>
+        <v>0.0313327292199686</v>
       </c>
       <c r="C3">
-        <v>0.09498638755834096</v>
+        <v>0.08081268783007137</v>
       </c>
       <c r="D3">
-        <v>-0.04844985339754605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.1006615320251407</v>
+      </c>
+      <c r="E3">
+        <v>0.06877652467047876</v>
+      </c>
+      <c r="F3">
+        <v>-0.02766921806383418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06466172727906387</v>
+        <v>0.05442535093299995</v>
       </c>
       <c r="C4">
-        <v>0.05902712727855099</v>
+        <v>0.06445888304565084</v>
       </c>
       <c r="D4">
-        <v>-0.02277059002199188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05942233939179457</v>
+      </c>
+      <c r="E4">
+        <v>0.04542821031162701</v>
+      </c>
+      <c r="F4">
+        <v>-0.07897358410400172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02970369515873659</v>
+        <v>0.03220163013175121</v>
       </c>
       <c r="C6">
-        <v>0.0419457244996015</v>
+        <v>0.03694417324086371</v>
       </c>
       <c r="D6">
-        <v>-0.02829336095316019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06724494118222178</v>
+      </c>
+      <c r="E6">
+        <v>0.05736690667923495</v>
+      </c>
+      <c r="F6">
+        <v>-0.07001858466110755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02513741706028836</v>
+        <v>0.01987430392482875</v>
       </c>
       <c r="C7">
-        <v>0.03776033925656733</v>
+        <v>0.0356968628713225</v>
       </c>
       <c r="D7">
-        <v>0.00340614208099889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03913277214457554</v>
+      </c>
+      <c r="E7">
+        <v>0.03245572858439793</v>
+      </c>
+      <c r="F7">
+        <v>-0.1109176491043204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.003113542948221055</v>
+        <v>0.003293462307562536</v>
       </c>
       <c r="C8">
-        <v>0.01016063043944473</v>
+        <v>0.02432614543315122</v>
       </c>
       <c r="D8">
-        <v>-0.01604662773805123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03595359701797321</v>
+      </c>
+      <c r="E8">
+        <v>0.03841614902054098</v>
+      </c>
+      <c r="F8">
+        <v>-0.05453471543846592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02953689811109999</v>
+        <v>0.03386135608895799</v>
       </c>
       <c r="C9">
-        <v>0.04289847638701823</v>
+        <v>0.05025825745029626</v>
       </c>
       <c r="D9">
-        <v>-0.01618588009073976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04490016190026091</v>
+      </c>
+      <c r="E9">
+        <v>0.03749458281574427</v>
+      </c>
+      <c r="F9">
+        <v>-0.08768104445599818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07609396504143839</v>
+        <v>0.1049864307923044</v>
       </c>
       <c r="C10">
-        <v>-0.1940668402662503</v>
+        <v>-0.1866283043659772</v>
       </c>
       <c r="D10">
-        <v>-0.007595140355258591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001381010532209758</v>
+      </c>
+      <c r="E10">
+        <v>0.04447538972218604</v>
+      </c>
+      <c r="F10">
+        <v>-0.0386773729966929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04043701624469181</v>
+        <v>0.03411797621432747</v>
       </c>
       <c r="C11">
-        <v>0.05393673078933701</v>
+        <v>0.05174099775648243</v>
       </c>
       <c r="D11">
-        <v>0.0001396599434148232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03309856211965213</v>
+      </c>
+      <c r="E11">
+        <v>0.004683899331813349</v>
+      </c>
+      <c r="F11">
+        <v>-0.06523723478074045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03603978399233952</v>
+        <v>0.03482328025538365</v>
       </c>
       <c r="C12">
-        <v>0.0433186845105234</v>
+        <v>0.04645877781717487</v>
       </c>
       <c r="D12">
-        <v>-0.0009534054912110892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02610539218844828</v>
+      </c>
+      <c r="E12">
+        <v>0.01361198287874225</v>
+      </c>
+      <c r="F12">
+        <v>-0.06684825868649456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01195253226064892</v>
+        <v>0.01033227770053054</v>
       </c>
       <c r="C13">
-        <v>0.0430848861682759</v>
+        <v>0.0410673693669435</v>
       </c>
       <c r="D13">
-        <v>-0.01770353610900165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.066940054315634</v>
+      </c>
+      <c r="E13">
+        <v>0.06415293805547463</v>
+      </c>
+      <c r="F13">
+        <v>-0.1176991217822441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.00894189756621221</v>
+        <v>0.004537146904975926</v>
       </c>
       <c r="C14">
-        <v>0.03148494335972032</v>
+        <v>0.02870424422761666</v>
       </c>
       <c r="D14">
-        <v>0.01495475163375283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03075149748207</v>
+      </c>
+      <c r="E14">
+        <v>0.02533983513523338</v>
+      </c>
+      <c r="F14">
+        <v>-0.09804140202995115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001741145939062899</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.001812291735641985</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001822145166720199</v>
+      </c>
+      <c r="E15">
+        <v>0.000143265669041243</v>
+      </c>
+      <c r="F15">
+        <v>-0.0009229252330114811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03572427690500978</v>
+        <v>0.03196143479456426</v>
       </c>
       <c r="C16">
-        <v>0.0383139874367068</v>
+        <v>0.04445361831918625</v>
       </c>
       <c r="D16">
-        <v>-0.006444608616257124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02875261938078081</v>
+      </c>
+      <c r="E16">
+        <v>0.0187788702681929</v>
+      </c>
+      <c r="F16">
+        <v>-0.06928282653658219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02803998677746363</v>
+        <v>0.01528720186977186</v>
       </c>
       <c r="C19">
-        <v>0.05709252193130785</v>
+        <v>0.04983765409162955</v>
       </c>
       <c r="D19">
-        <v>-0.071483207722599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1048322880395853</v>
+      </c>
+      <c r="E19">
+        <v>0.08065867405272746</v>
+      </c>
+      <c r="F19">
+        <v>-0.1024450220480925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01533416312030225</v>
+        <v>0.01219156764322047</v>
       </c>
       <c r="C20">
-        <v>0.04350576579216432</v>
+        <v>0.03955101058824739</v>
       </c>
       <c r="D20">
-        <v>-0.01894985223649906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04268172216617863</v>
+      </c>
+      <c r="E20">
+        <v>0.05485375584747752</v>
+      </c>
+      <c r="F20">
+        <v>-0.09114693025974359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01071648726635957</v>
+        <v>0.005115469594548339</v>
       </c>
       <c r="C21">
-        <v>0.04744229949101469</v>
+        <v>0.0417014579249862</v>
       </c>
       <c r="D21">
-        <v>-0.03946538664988028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07225785766779717</v>
+      </c>
+      <c r="E21">
+        <v>0.06610964589881035</v>
+      </c>
+      <c r="F21">
+        <v>-0.1323030453838434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001467031427243631</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02206097598421612</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03129273306958709</v>
+      </c>
+      <c r="E22">
+        <v>0.0143913201631724</v>
+      </c>
+      <c r="F22">
+        <v>-0.01075590520434745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001397880868849331</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02219108048061643</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03093842303697022</v>
+      </c>
+      <c r="E23">
+        <v>0.0146697098633064</v>
+      </c>
+      <c r="F23">
+        <v>-0.01053909004866217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.03022730027906911</v>
+        <v>0.03018823703548175</v>
       </c>
       <c r="C24">
-        <v>0.04527627821181468</v>
+        <v>0.0520925353037749</v>
       </c>
       <c r="D24">
-        <v>-0.001342008495894321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02660317852031676</v>
+      </c>
+      <c r="E24">
+        <v>0.01519317697701151</v>
+      </c>
+      <c r="F24">
+        <v>-0.07613020772543082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04707160956377499</v>
+        <v>0.04073268594399666</v>
       </c>
       <c r="C25">
-        <v>0.05595546651157823</v>
+        <v>0.05800690216320976</v>
       </c>
       <c r="D25">
-        <v>0.009280852792677133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02405920703686693</v>
+      </c>
+      <c r="E25">
+        <v>0.01161322104888361</v>
+      </c>
+      <c r="F25">
+        <v>-0.07835619189337976</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01188801895237315</v>
+        <v>0.01276982719408203</v>
       </c>
       <c r="C26">
-        <v>0.01585101102809573</v>
+        <v>0.01530711713140516</v>
       </c>
       <c r="D26">
-        <v>-0.004818071324906763</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02608504875577496</v>
+      </c>
+      <c r="E26">
+        <v>0.02626282274681727</v>
+      </c>
+      <c r="F26">
+        <v>-0.07517237024438266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.0879636684290892</v>
+        <v>0.1396312273003489</v>
       </c>
       <c r="C28">
-        <v>-0.2200197634423452</v>
+        <v>-0.2369327677936247</v>
       </c>
       <c r="D28">
-        <v>0.00105522733401117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01594157049896094</v>
+      </c>
+      <c r="E28">
+        <v>0.04426485887044183</v>
+      </c>
+      <c r="F28">
+        <v>-0.05299157906346669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01335641155783949</v>
+        <v>0.005475028969512641</v>
       </c>
       <c r="C29">
-        <v>0.02523992052449028</v>
+        <v>0.02562909355882422</v>
       </c>
       <c r="D29">
-        <v>0.01495170934956916</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0228111561463337</v>
+      </c>
+      <c r="E29">
+        <v>0.02845562082745242</v>
+      </c>
+      <c r="F29">
+        <v>-0.0886802270214001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05257913628966187</v>
+        <v>0.03795535030014711</v>
       </c>
       <c r="C30">
-        <v>0.06435488926076029</v>
+        <v>0.06218074105311906</v>
       </c>
       <c r="D30">
-        <v>-0.03880868978884563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1081211305307302</v>
+      </c>
+      <c r="E30">
+        <v>0.03278231410494856</v>
+      </c>
+      <c r="F30">
+        <v>-0.1007701676801196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04256575969605985</v>
+        <v>0.05207521564896641</v>
       </c>
       <c r="C31">
-        <v>0.03177326657102257</v>
+        <v>0.05088117681068901</v>
       </c>
       <c r="D31">
-        <v>0.01054828145819489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003189394243847008</v>
+      </c>
+      <c r="E31">
+        <v>0.0439735846236995</v>
+      </c>
+      <c r="F31">
+        <v>-0.08230337312104777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.00156439257805967</v>
+        <v>0.003053684599338022</v>
       </c>
       <c r="C32">
-        <v>0.04710974931290714</v>
+        <v>0.02933339142254772</v>
       </c>
       <c r="D32">
-        <v>-0.01954801326591287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04990741126617464</v>
+      </c>
+      <c r="E32">
+        <v>0.02062004452228607</v>
+      </c>
+      <c r="F32">
+        <v>-0.07115377348971334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02743174335569237</v>
+        <v>0.02225031222989002</v>
       </c>
       <c r="C33">
-        <v>0.06034035825389075</v>
+        <v>0.05305013196898455</v>
       </c>
       <c r="D33">
-        <v>-0.02209246778231068</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08271434777250776</v>
+      </c>
+      <c r="E33">
+        <v>0.04742552580168292</v>
+      </c>
+      <c r="F33">
+        <v>-0.1289584677114896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05035781085963961</v>
+        <v>0.03938377955619782</v>
       </c>
       <c r="C34">
-        <v>0.05424572967933328</v>
+        <v>0.06356801139940785</v>
       </c>
       <c r="D34">
-        <v>0.009168942009598759</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03377146407498247</v>
+      </c>
+      <c r="E34">
+        <v>-0.006064883025243867</v>
+      </c>
+      <c r="F34">
+        <v>-0.07438541751409491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.009215145950766238</v>
+        <v>0.01320855286447899</v>
       </c>
       <c r="C36">
-        <v>0.01192645254391038</v>
+        <v>0.0110973981280819</v>
       </c>
       <c r="D36">
-        <v>-0.003925462843191675</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02871838977678529</v>
+      </c>
+      <c r="E36">
+        <v>0.03356927354086153</v>
+      </c>
+      <c r="F36">
+        <v>-0.08364600644457641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03327287522278471</v>
+        <v>0.02529333824115895</v>
       </c>
       <c r="C38">
-        <v>0.02386749416011856</v>
+        <v>0.02425381955731867</v>
       </c>
       <c r="D38">
-        <v>-0.00298576472830917</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02815688502334456</v>
+      </c>
+      <c r="E38">
+        <v>0.03483218565796621</v>
+      </c>
+      <c r="F38">
+        <v>-0.06958024600994958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04189017234087957</v>
+        <v>0.0356731939270382</v>
       </c>
       <c r="C39">
-        <v>0.06946786734769417</v>
+        <v>0.06726802625937045</v>
       </c>
       <c r="D39">
-        <v>-0.02304479288938345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05151836209057997</v>
+      </c>
+      <c r="E39">
+        <v>0.01664091081456637</v>
+      </c>
+      <c r="F39">
+        <v>-0.09078236494989306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02001684107821477</v>
+        <v>0.01535638669632527</v>
       </c>
       <c r="C40">
-        <v>0.02761516990769713</v>
+        <v>0.03713321253727741</v>
       </c>
       <c r="D40">
-        <v>-0.0350121765484515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04091653553991438</v>
+      </c>
+      <c r="E40">
+        <v>0.07119901438049185</v>
+      </c>
+      <c r="F40">
+        <v>-0.09141199982249887</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01158475861144557</v>
+        <v>0.01783538861873745</v>
       </c>
       <c r="C41">
-        <v>0.002517795987827783</v>
+        <v>0.004238022697276926</v>
       </c>
       <c r="D41">
-        <v>-0.0009357584217731233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01915320881847071</v>
+      </c>
+      <c r="E41">
+        <v>0.035912327300148</v>
+      </c>
+      <c r="F41">
+        <v>-0.07371330680538607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.00138655438139316</v>
+        <v>0.0006218111609446088</v>
       </c>
       <c r="C42">
-        <v>0.01788878581019785</v>
+        <v>0.009476384336465749</v>
       </c>
       <c r="D42">
-        <v>-0.006754295063175194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.00363578288153864</v>
+      </c>
+      <c r="E42">
+        <v>0.005524132314131263</v>
+      </c>
+      <c r="F42">
+        <v>0.01735583756988962</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03317221969449231</v>
+        <v>0.0292607371492846</v>
       </c>
       <c r="C43">
-        <v>0.01613754588305104</v>
+        <v>0.01911201851146335</v>
       </c>
       <c r="D43">
-        <v>-0.009503389213336716</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04393377784687832</v>
+      </c>
+      <c r="E43">
+        <v>0.04145512878295537</v>
+      </c>
+      <c r="F43">
+        <v>-0.08707043688834681</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.02233203047092604</v>
+        <v>0.01404425999896642</v>
       </c>
       <c r="C44">
-        <v>0.05365186745329131</v>
+        <v>0.05005007791701796</v>
       </c>
       <c r="D44">
-        <v>-0.02089702844012021</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04325940665685514</v>
+      </c>
+      <c r="E44">
+        <v>0.05665192568788383</v>
+      </c>
+      <c r="F44">
+        <v>-0.09526466681119809</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.002405090142162568</v>
+        <v>0.006691815005871783</v>
       </c>
       <c r="C46">
-        <v>0.01922187357735139</v>
+        <v>0.02319569827760954</v>
       </c>
       <c r="D46">
-        <v>0.01281861406334111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01569433948800692</v>
+      </c>
+      <c r="E46">
+        <v>0.03228785956211083</v>
+      </c>
+      <c r="F46">
+        <v>-0.1031556500932537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07780741071975733</v>
+        <v>0.08385988184172254</v>
       </c>
       <c r="C47">
-        <v>0.07269893419434709</v>
+        <v>0.07860638223078049</v>
       </c>
       <c r="D47">
-        <v>0.003829295601976367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01150124141583284</v>
+      </c>
+      <c r="E47">
+        <v>0.05092892472194264</v>
+      </c>
+      <c r="F47">
+        <v>-0.08013628682613054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01971336564331561</v>
+        <v>0.01495671511404998</v>
       </c>
       <c r="C48">
-        <v>0.01059507807452082</v>
+        <v>0.01577414181055731</v>
       </c>
       <c r="D48">
-        <v>0.001238109277510403</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01899354226840565</v>
+      </c>
+      <c r="E48">
+        <v>0.04288141313622262</v>
+      </c>
+      <c r="F48">
+        <v>-0.09704176286965102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08780122269293666</v>
+        <v>0.07037525601309563</v>
       </c>
       <c r="C50">
-        <v>0.06727117825986549</v>
+        <v>0.06924761682327502</v>
       </c>
       <c r="D50">
-        <v>0.01157955458406392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0004938745897004906</v>
+      </c>
+      <c r="E50">
+        <v>0.04827056370014222</v>
+      </c>
+      <c r="F50">
+        <v>-0.0682810986856341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0122735435078611</v>
+        <v>0.009184794945086099</v>
       </c>
       <c r="C51">
-        <v>0.04604347272269385</v>
+        <v>0.03238324045436544</v>
       </c>
       <c r="D51">
-        <v>-0.006374214801647391</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04885635748895808</v>
+      </c>
+      <c r="E51">
+        <v>0.01894217566216417</v>
+      </c>
+      <c r="F51">
+        <v>-0.08717658933486334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09333722697830558</v>
+        <v>0.08957595476022909</v>
       </c>
       <c r="C53">
-        <v>0.0762520368441075</v>
+        <v>0.09039992218315587</v>
       </c>
       <c r="D53">
-        <v>0.03556231360975829</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03907433122169818</v>
+      </c>
+      <c r="E53">
+        <v>0.05177660895445643</v>
+      </c>
+      <c r="F53">
+        <v>-0.08860920229586376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03055931381951871</v>
+        <v>0.02759208791085718</v>
       </c>
       <c r="C54">
-        <v>0.01605525772417331</v>
+        <v>0.02592049096447981</v>
       </c>
       <c r="D54">
-        <v>-0.004288735038848843</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03589690307692119</v>
+      </c>
+      <c r="E54">
+        <v>0.03767930599420949</v>
+      </c>
+      <c r="F54">
+        <v>-0.09895121373154865</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07317615635939538</v>
+        <v>0.08097552433462936</v>
       </c>
       <c r="C55">
-        <v>0.0703921746725872</v>
+        <v>0.0746518387361095</v>
       </c>
       <c r="D55">
-        <v>0.03485660528151941</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04592415024172562</v>
+      </c>
+      <c r="E55">
+        <v>0.04261641292477265</v>
+      </c>
+      <c r="F55">
+        <v>-0.06457945766875135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1502997138253391</v>
+        <v>0.1431054236694924</v>
       </c>
       <c r="C56">
-        <v>0.09454683216979055</v>
+        <v>0.1077867235915384</v>
       </c>
       <c r="D56">
-        <v>0.02990841604703738</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04829404295576226</v>
+      </c>
+      <c r="E56">
+        <v>0.04841801793027515</v>
+      </c>
+      <c r="F56">
+        <v>-0.05419735066634443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.003807485239185335</v>
+        <v>0.001524755336879982</v>
       </c>
       <c r="C57">
-        <v>0.003076921059660805</v>
+        <v>0.00178343763598676</v>
       </c>
       <c r="D57">
-        <v>-0.01623041826957255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01571059869968002</v>
+      </c>
+      <c r="E57">
+        <v>0.007350120779757966</v>
+      </c>
+      <c r="F57">
+        <v>-0.01423403636232421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07876848940642343</v>
+        <v>0.02896097594365458</v>
       </c>
       <c r="C58">
-        <v>0.02905967895010723</v>
+        <v>0.03305030517884915</v>
       </c>
       <c r="D58">
-        <v>-0.9630985696010468</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.5054714349279025</v>
+      </c>
+      <c r="E58">
+        <v>0.6832235388986504</v>
+      </c>
+      <c r="F58">
+        <v>0.4386893095662147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1334772292880442</v>
+        <v>0.1521820747744081</v>
       </c>
       <c r="C59">
-        <v>-0.2059287596961044</v>
+        <v>-0.1850545692228578</v>
       </c>
       <c r="D59">
-        <v>-0.02008313821712959</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02982691615324303</v>
+      </c>
+      <c r="E59">
+        <v>0.02387734910636467</v>
+      </c>
+      <c r="F59">
+        <v>-0.02269101777385945</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.316067099198932</v>
+        <v>0.2799842528128054</v>
       </c>
       <c r="C60">
-        <v>0.08157433220659896</v>
+        <v>0.1065897698281696</v>
       </c>
       <c r="D60">
-        <v>0.02865469494694225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2042777051221698</v>
+      </c>
+      <c r="E60">
+        <v>-0.2753552720172099</v>
+      </c>
+      <c r="F60">
+        <v>0.1261992637090013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03792779148985085</v>
+        <v>0.03827922772618619</v>
       </c>
       <c r="C61">
-        <v>0.06105766870891508</v>
+        <v>0.0612726564528754</v>
       </c>
       <c r="D61">
-        <v>-0.01232476164772392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04684440699401857</v>
+      </c>
+      <c r="E61">
+        <v>0.02230268557891361</v>
+      </c>
+      <c r="F61">
+        <v>-0.08182938515806024</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.012647850278206</v>
+        <v>0.01408492979149633</v>
       </c>
       <c r="C63">
-        <v>0.03719112343346004</v>
+        <v>0.03124988376555374</v>
       </c>
       <c r="D63">
-        <v>0.001921236931733956</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0227437036928303</v>
+      </c>
+      <c r="E63">
+        <v>0.03647570654721746</v>
+      </c>
+      <c r="F63">
+        <v>-0.07666640347669118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05077323665274294</v>
+        <v>0.05351765601945169</v>
       </c>
       <c r="C64">
-        <v>0.02922780257533382</v>
+        <v>0.05336379635950539</v>
       </c>
       <c r="D64">
-        <v>0.003840993770758843</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01205766073315819</v>
+      </c>
+      <c r="E64">
+        <v>0.01955556321422683</v>
+      </c>
+      <c r="F64">
+        <v>-0.0874709608998329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09500332098469823</v>
+        <v>0.06590378141284545</v>
       </c>
       <c r="C65">
-        <v>0.04586786026590561</v>
+        <v>0.04329226223928832</v>
       </c>
       <c r="D65">
-        <v>-0.03310186739197963</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08237337431536443</v>
+      </c>
+      <c r="E65">
+        <v>0.03408819689787917</v>
+      </c>
+      <c r="F65">
+        <v>-0.0251755727861958</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06589754077735664</v>
+        <v>0.04793322356512185</v>
       </c>
       <c r="C66">
-        <v>0.1056225975929881</v>
+        <v>0.09139242839181207</v>
       </c>
       <c r="D66">
-        <v>-0.02774462804011621</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07835769654063321</v>
+      </c>
+      <c r="E66">
+        <v>0.01954733740610295</v>
+      </c>
+      <c r="F66">
+        <v>-0.09195773796657015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05735063349832245</v>
+        <v>0.04796187640231689</v>
       </c>
       <c r="C67">
-        <v>0.029049810051976</v>
+        <v>0.03080097738457475</v>
       </c>
       <c r="D67">
-        <v>0.005132192234465716</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01572103539271377</v>
+      </c>
+      <c r="E67">
+        <v>0.02001740303550862</v>
+      </c>
+      <c r="F67">
+        <v>-0.05638757581746679</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1157830090211488</v>
+        <v>0.1595022583472825</v>
       </c>
       <c r="C68">
-        <v>-0.2869752454686007</v>
+        <v>-0.2508798497696346</v>
       </c>
       <c r="D68">
-        <v>-0.003056364087684737</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01875030076652763</v>
+      </c>
+      <c r="E68">
+        <v>0.03917297140618377</v>
+      </c>
+      <c r="F68">
+        <v>-0.01718781012747008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08643648654827643</v>
+        <v>0.08398719295477687</v>
       </c>
       <c r="C69">
-        <v>0.06766968764609288</v>
+        <v>0.08436830205072034</v>
       </c>
       <c r="D69">
-        <v>0.03265810849221194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008027299677745219</v>
+      </c>
+      <c r="E69">
+        <v>0.02437087977105725</v>
+      </c>
+      <c r="F69">
+        <v>-0.09448277463353857</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.122275126591381</v>
+        <v>0.1499704327931926</v>
       </c>
       <c r="C71">
-        <v>-0.2463899903718783</v>
+        <v>-0.2286756490345493</v>
       </c>
       <c r="D71">
-        <v>-0.01583370078679984</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01492199718130355</v>
+      </c>
+      <c r="E71">
+        <v>0.05661908807421089</v>
+      </c>
+      <c r="F71">
+        <v>-0.05777741559996777</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08364075672705862</v>
+        <v>0.09434922648442874</v>
       </c>
       <c r="C72">
-        <v>0.04706775723511541</v>
+        <v>0.0577100413646582</v>
       </c>
       <c r="D72">
-        <v>0.01792089590972366</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01883050607069152</v>
+      </c>
+      <c r="E72">
+        <v>0.01001023607997822</v>
+      </c>
+      <c r="F72">
+        <v>-0.08149147103143876</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4359915496591901</v>
+        <v>0.3452756569765839</v>
       </c>
       <c r="C73">
-        <v>0.05889952654901161</v>
+        <v>0.08860580510502732</v>
       </c>
       <c r="D73">
-        <v>-0.01616711037357581</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.422920026599935</v>
+      </c>
+      <c r="E73">
+        <v>-0.4887061105270572</v>
+      </c>
+      <c r="F73">
+        <v>0.3001578447417061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1205413242274597</v>
+        <v>0.1103679147551745</v>
       </c>
       <c r="C74">
-        <v>0.1157554438395308</v>
+        <v>0.104161070826438</v>
       </c>
       <c r="D74">
-        <v>0.01121006805448573</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02591326687107524</v>
+      </c>
+      <c r="E74">
+        <v>0.06763566068276353</v>
+      </c>
+      <c r="F74">
+        <v>-0.06252287387434846</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2583118214963621</v>
+        <v>0.2530682209539192</v>
       </c>
       <c r="C75">
-        <v>0.1316192390671654</v>
+        <v>0.1493866059131302</v>
       </c>
       <c r="D75">
-        <v>0.05078366359690804</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1273398373978213</v>
+      </c>
+      <c r="E75">
+        <v>0.08172963176367984</v>
+      </c>
+      <c r="F75">
+        <v>-0.02389283392087431</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1199607881161034</v>
+        <v>0.125852796319688</v>
       </c>
       <c r="C76">
-        <v>0.1056452800300728</v>
+        <v>0.109425841109562</v>
       </c>
       <c r="D76">
-        <v>0.03360423931533662</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05936472506237358</v>
+      </c>
+      <c r="E76">
+        <v>0.07028153895366847</v>
+      </c>
+      <c r="F76">
+        <v>-0.06993447990087494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07602409660238668</v>
+        <v>0.05932762430979684</v>
       </c>
       <c r="C77">
-        <v>0.05818964406324324</v>
+        <v>0.06780676961270149</v>
       </c>
       <c r="D77">
-        <v>-0.04440452379351838</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06798979162900494</v>
+      </c>
+      <c r="E77">
+        <v>0.06172478119791067</v>
+      </c>
+      <c r="F77">
+        <v>-0.121472186400118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04520205196271886</v>
+        <v>0.03883008404560178</v>
       </c>
       <c r="C78">
-        <v>0.04261696271437192</v>
+        <v>0.0540675276459062</v>
       </c>
       <c r="D78">
-        <v>-0.01417018517821943</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07212496395884509</v>
+      </c>
+      <c r="E78">
+        <v>0.01460247053334427</v>
+      </c>
+      <c r="F78">
+        <v>-0.09542844140925411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01767834639977975</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03342763680001296</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05517127569547944</v>
+      </c>
+      <c r="E79">
+        <v>0.03914195080392863</v>
+      </c>
+      <c r="F79">
+        <v>-0.03096091395657138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04755525044491484</v>
+        <v>0.03340208334843012</v>
       </c>
       <c r="C80">
-        <v>0.05151350527546171</v>
+        <v>0.05205130431752904</v>
       </c>
       <c r="D80">
-        <v>-0.02711267623824065</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04825155129332389</v>
+      </c>
+      <c r="E80">
+        <v>0.009938933954048121</v>
+      </c>
+      <c r="F80">
+        <v>-0.03496710046762967</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1401803927745728</v>
+        <v>0.1380742611698308</v>
       </c>
       <c r="C81">
-        <v>0.08223221817769574</v>
+        <v>0.1009800818943114</v>
       </c>
       <c r="D81">
-        <v>0.02197551742051977</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09142225713837827</v>
+      </c>
+      <c r="E81">
+        <v>0.08274063868653586</v>
+      </c>
+      <c r="F81">
+        <v>-0.02955001829230728</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.0716076135097056</v>
+        <v>0.1897893203081862</v>
       </c>
       <c r="C82">
-        <v>0.04743845646705412</v>
+        <v>0.1437144963900056</v>
       </c>
       <c r="D82">
-        <v>0.0282033289308689</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2248499262208063</v>
+      </c>
+      <c r="E82">
+        <v>0.01743066611460758</v>
+      </c>
+      <c r="F82">
+        <v>-0.08206643894839022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02583410354584849</v>
+        <v>0.02573938817403619</v>
       </c>
       <c r="C83">
-        <v>0.0207337976481806</v>
+        <v>0.03750456736206501</v>
       </c>
       <c r="D83">
-        <v>-0.01649068523187598</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03446342576476164</v>
+      </c>
+      <c r="E83">
+        <v>0.006630173538672218</v>
+      </c>
+      <c r="F83">
+        <v>-0.05308211722734329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2378210530108608</v>
+        <v>0.2030299606494966</v>
       </c>
       <c r="C85">
-        <v>0.1172944579082908</v>
+        <v>0.1319918230675666</v>
       </c>
       <c r="D85">
-        <v>0.1169488396856106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1053516914472363</v>
+      </c>
+      <c r="E85">
+        <v>0.005186436397529691</v>
+      </c>
+      <c r="F85">
+        <v>0.01636032574401279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.008071209732142891</v>
+        <v>0.01142206826873369</v>
       </c>
       <c r="C86">
-        <v>0.02101543934479908</v>
+        <v>0.02874460470325807</v>
       </c>
       <c r="D86">
-        <v>-0.03173302363635132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07831423377357481</v>
+      </c>
+      <c r="E86">
+        <v>0.04242163358416608</v>
+      </c>
+      <c r="F86">
+        <v>-0.1458156143182574</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.02040134278496631</v>
+        <v>0.01816643041391842</v>
       </c>
       <c r="C87">
-        <v>0.01863834980841294</v>
+        <v>0.01935172248886414</v>
       </c>
       <c r="D87">
-        <v>-0.09783914571139801</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09103440544555801</v>
+      </c>
+      <c r="E87">
+        <v>0.08027184071675034</v>
+      </c>
+      <c r="F87">
+        <v>-0.0925376331899829</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1046224367676377</v>
+        <v>0.08709321800729114</v>
       </c>
       <c r="C88">
-        <v>0.07088411881977241</v>
+        <v>0.06457653318477684</v>
       </c>
       <c r="D88">
-        <v>0.01546497384478796</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0135646735125737</v>
+      </c>
+      <c r="E88">
+        <v>0.02941830424403402</v>
+      </c>
+      <c r="F88">
+        <v>-0.07125115641388279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1887988470330878</v>
+        <v>0.2329657353213823</v>
       </c>
       <c r="C89">
-        <v>-0.3772109062643757</v>
+        <v>-0.376278598519334</v>
       </c>
       <c r="D89">
-        <v>0.03011128480283751</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01970408244128681</v>
+      </c>
+      <c r="E89">
+        <v>0.03295115841188342</v>
+      </c>
+      <c r="F89">
+        <v>-0.09805448560771883</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1758760977950759</v>
+        <v>0.2110459528171489</v>
       </c>
       <c r="C90">
-        <v>-0.3485000841815025</v>
+        <v>-0.3140611265702535</v>
       </c>
       <c r="D90">
-        <v>-0.00450079791708951</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01311511628443947</v>
+      </c>
+      <c r="E90">
+        <v>0.06116674894487747</v>
+      </c>
+      <c r="F90">
+        <v>-0.05037646653595496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.2012919577332705</v>
+        <v>0.1872458231923756</v>
       </c>
       <c r="C91">
-        <v>0.117073137839896</v>
+        <v>0.144432133975382</v>
       </c>
       <c r="D91">
-        <v>0.05103194423675275</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1012491574214543</v>
+      </c>
+      <c r="E91">
+        <v>0.07438798386022852</v>
+      </c>
+      <c r="F91">
+        <v>-0.04759749613466355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1673704956761042</v>
+        <v>0.1906383978659132</v>
       </c>
       <c r="C92">
-        <v>-0.2827243991018148</v>
+        <v>-0.2713642804505126</v>
       </c>
       <c r="D92">
-        <v>0.01269010390161796</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.007130388477325412</v>
+      </c>
+      <c r="E92">
+        <v>0.06829880899235244</v>
+      </c>
+      <c r="F92">
+        <v>-0.07171663034533524</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1971835584715937</v>
+        <v>0.2359508553348504</v>
       </c>
       <c r="C93">
-        <v>-0.3446618887695921</v>
+        <v>-0.3154481212442254</v>
       </c>
       <c r="D93">
-        <v>-0.01441315271278838</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.000994588017263249</v>
+      </c>
+      <c r="E93">
+        <v>0.04840093493364554</v>
+      </c>
+      <c r="F93">
+        <v>-0.04229347498628852</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.2921081693806012</v>
+        <v>0.3363159564517974</v>
       </c>
       <c r="C94">
-        <v>0.1569536934871579</v>
+        <v>0.2040743135016117</v>
       </c>
       <c r="D94">
-        <v>0.07558787537703841</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4658678176794999</v>
+      </c>
+      <c r="E94">
+        <v>0.1720967755642852</v>
+      </c>
+      <c r="F94">
+        <v>0.4353672087116563</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09642063843605332</v>
+        <v>0.08072312631258131</v>
       </c>
       <c r="C95">
-        <v>0.07294234767210853</v>
+        <v>0.07409519097935705</v>
       </c>
       <c r="D95">
-        <v>-0.02709929484903944</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1525726961176171</v>
+      </c>
+      <c r="E95">
+        <v>-0.142328398582098</v>
+      </c>
+      <c r="F95">
+        <v>-0.2044759115802381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2061274344159741</v>
+        <v>0.1885295980950855</v>
       </c>
       <c r="C98">
-        <v>0.01859629570568624</v>
+        <v>0.04492088856002435</v>
       </c>
       <c r="D98">
-        <v>-0.01619087904256666</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1721021389866522</v>
+      </c>
+      <c r="E98">
+        <v>-0.1548421697016898</v>
+      </c>
+      <c r="F98">
+        <v>0.04370842545245044</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01305655669535323</v>
+        <v>0.005356696049659134</v>
       </c>
       <c r="C101">
-        <v>0.02535306304839099</v>
+        <v>0.0253722301464447</v>
       </c>
       <c r="D101">
-        <v>0.01502750552128749</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02216905424461586</v>
+      </c>
+      <c r="E101">
+        <v>0.02896204421706433</v>
+      </c>
+      <c r="F101">
+        <v>-0.08823608463713949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1211442640357093</v>
+        <v>0.1202981716185959</v>
       </c>
       <c r="C102">
-        <v>0.07762882217197016</v>
+        <v>0.1030297202860716</v>
       </c>
       <c r="D102">
-        <v>0.04371556479047962</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05065061428094372</v>
+      </c>
+      <c r="E102">
+        <v>-0.01072613422737689</v>
+      </c>
+      <c r="F102">
+        <v>-0.03892906656128785</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
